--- a/items_data/master_upload.xlsx
+++ b/items_data/master_upload.xlsx
@@ -4,12 +4,11 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="master" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="to_upload" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="to_delete" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="to_upload" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="to_delete" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -76,7 +75,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -87,12 +86,18 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,49 +467,66 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="44.5" customWidth="1" style="3" min="1" max="1"/>
-    <col width="22.28" customWidth="1" style="3" min="2" max="2"/>
-    <col width="11.52" customWidth="1" style="3" min="3" max="3"/>
-    <col width="62.71" customWidth="1" style="3" min="4" max="4"/>
-    <col width="14.88" customWidth="1" style="3" min="5" max="5"/>
-    <col width="11.52" customWidth="1" style="3" min="6" max="1025"/>
+    <col width="82.27" customWidth="1" style="4" min="1" max="1"/>
+    <col width="63.21" customWidth="1" style="4" min="2" max="2"/>
+    <col width="11.52" customWidth="1" style="4" min="3" max="4"/>
+    <col width="39.36" customWidth="1" style="4" min="5" max="5"/>
+    <col width="11.52" customWidth="1" style="4" min="6" max="6"/>
+    <col width="63.83" customWidth="1" style="4" min="7" max="7"/>
+    <col width="47.65" customWidth="1" style="4" min="8" max="8"/>
+    <col width="11.52" customWidth="1" style="4" min="9" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customFormat="1" customHeight="1" s="4">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="87.3" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Item Series</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Short Name</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
@@ -513,16 +535,24 @@
     <row r="2" ht="57.45" customHeight="1" s="5"/>
     <row r="3" ht="57.45" customHeight="1" s="5"/>
     <row r="4" ht="57.45" customHeight="1" s="5"/>
-    <row r="5" ht="23.85" customHeight="1" s="5"/>
-    <row r="6" ht="23.85" customHeight="1" s="5"/>
-    <row r="7" ht="23.85" customHeight="1" s="5"/>
-    <row r="8" ht="57.45" customHeight="1" s="5"/>
-    <row r="9" ht="57.45" customHeight="1" s="5"/>
-    <row r="10" ht="57.45" customHeight="1" s="5"/>
+    <row r="5" ht="57.45" customHeight="1" s="5"/>
+    <row r="6" ht="12.8" customHeight="1" s="5"/>
+    <row r="7" ht="12.8" customHeight="1" s="5"/>
+    <row r="8" ht="12.8" customHeight="1" s="5"/>
+    <row r="9" ht="12.8" customHeight="1" s="5"/>
+    <row r="10" ht="12.8" customHeight="1" s="5"/>
+    <row r="11" ht="12.8" customHeight="1" s="5"/>
+    <row r="12" ht="12.8" customHeight="1" s="5"/>
+    <row r="13" ht="12.8" customHeight="1" s="5"/>
+    <row r="14" ht="12.8" customHeight="1" s="5"/>
+    <row r="15" ht="12.8" customHeight="1" s="5"/>
+    <row r="16" ht="12.8" customHeight="1" s="5"/>
+    <row r="17" ht="12.8" customHeight="1" s="5"/>
+    <row r="18" ht="12.8" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
@@ -540,85 +570,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="3" min="1" max="1"/>
-    <col width="22.28" customWidth="1" style="3" min="2" max="2"/>
-    <col width="11.52" customWidth="1" style="3" min="3" max="4"/>
-    <col width="39.36" customWidth="1" style="3" min="5" max="5"/>
-    <col width="11.52" customWidth="1" style="3" min="6" max="1025"/>
+    <col width="33.8" customWidth="1" style="4" min="1" max="1"/>
+    <col width="11.52" customWidth="1" style="4" min="2" max="3"/>
+    <col width="62.71" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.88" customWidth="1" style="4" min="5" max="5"/>
+    <col width="11.52" customWidth="1" style="4" min="6" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customFormat="1" customHeight="1" s="4">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Item Series</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Short Name</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="H1" s="6" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="I1" s="6" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="5">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Tie Dye Unicorn Small Mythical Plush (8 in.)</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>https://www.thepaperstore.com/p/kell-sq-sm-mythical-td-unicorn/59676200005</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>004102_1000574515_NoColor.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>The Paper Store</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" ht="12.8" customHeight="1" s="5"/>
     <row r="3" ht="12.8" customHeight="1" s="5"/>
     <row r="4" ht="12.8" customHeight="1" s="5"/>
     <row r="5" ht="12.8" customHeight="1" s="5"/>
@@ -629,116 +643,6 @@
     <row r="10" ht="12.8" customHeight="1" s="5"/>
     <row r="11" ht="12.8" customHeight="1" s="5"/>
     <row r="12" ht="12.8" customHeight="1" s="5"/>
-    <row r="13" ht="12.8" customHeight="1" s="5"/>
-    <row r="14" ht="12.8" customHeight="1" s="5"/>
-    <row r="15" ht="12.8" customHeight="1" s="5"/>
-    <row r="16" ht="12.8" customHeight="1" s="5"/>
-    <row r="17" ht="12.8" customHeight="1" s="5"/>
-    <row r="18" ht="12.8" customHeight="1" s="5"/>
-    <row r="19" ht="12.8" customHeight="1" s="5"/>
-    <row r="20" ht="12.8" customHeight="1" s="5"/>
-    <row r="21" ht="12.8" customHeight="1" s="5"/>
-    <row r="22" ht="12.8" customHeight="1" s="5"/>
-    <row r="23" ht="12.8" customHeight="1" s="5"/>
-    <row r="24" ht="12.8" customHeight="1" s="5"/>
-    <row r="25" ht="12.8" customHeight="1" s="5"/>
-    <row r="26" ht="12.8" customHeight="1" s="5"/>
-    <row r="27" ht="12.8" customHeight="1" s="5"/>
-    <row r="28" ht="12.8" customHeight="1" s="5"/>
-    <row r="29" ht="12.8" customHeight="1" s="5"/>
-    <row r="30" ht="12.8" customHeight="1" s="5"/>
-    <row r="31" ht="12.8" customHeight="1" s="5"/>
-    <row r="32" ht="12.8" customHeight="1" s="5"/>
-    <row r="33" ht="12.8" customHeight="1" s="5"/>
-    <row r="34" ht="12.8" customHeight="1" s="5"/>
-    <row r="35" ht="12.8" customHeight="1" s="5"/>
-    <row r="36" ht="12.8" customHeight="1" s="5"/>
-    <row r="37" ht="12.8" customHeight="1" s="5"/>
-    <row r="38" ht="12.8" customHeight="1" s="5"/>
-    <row r="39" ht="12.8" customHeight="1" s="5"/>
-    <row r="40" ht="12.8" customHeight="1" s="5"/>
-    <row r="41" ht="12.8" customHeight="1" s="5"/>
-    <row r="42" ht="12.8" customHeight="1" s="5"/>
-    <row r="43" ht="12.8" customHeight="1" s="5"/>
-  </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="33.8" customWidth="1" style="3" min="1" max="1"/>
-    <col width="11.52" customWidth="1" style="3" min="2" max="3"/>
-    <col width="62.71" customWidth="1" style="3" min="4" max="4"/>
-    <col width="14.88" customWidth="1" style="3" min="5" max="5"/>
-    <col width="11.52" customWidth="1" style="3" min="6" max="1025"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.8" customFormat="1" customHeight="1" s="4">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Item Series</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Styles</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>In Stock</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Url</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Img path</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Short URL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="57.45" customHeight="1" s="5"/>
-    <row r="3" ht="57.45" customHeight="1" s="5"/>
-    <row r="4" ht="57.45" customHeight="1" s="5"/>
-    <row r="5" ht="57.45" customHeight="1" s="5"/>
-    <row r="6" ht="57.45" customHeight="1" s="5"/>
-    <row r="7" ht="23.85" customHeight="1" s="5"/>
-    <row r="8" ht="23.85" customHeight="1" s="5"/>
-    <row r="9" ht="23.85" customHeight="1" s="5"/>
-    <row r="10" ht="57.45" customHeight="1" s="5"/>
-    <row r="11" ht="57.45" customHeight="1" s="5"/>
-    <row r="12" ht="57.45" customHeight="1" s="5"/>
     <row r="13" ht="12.8" customHeight="1" s="5"/>
     <row r="14" ht="12.8" customHeight="1" s="5"/>
     <row r="15" ht="12.8" customHeight="1" s="5"/>
@@ -808,6 +712,16 @@
     <row r="79" ht="12.8" customHeight="1" s="5"/>
     <row r="80" ht="12.8" customHeight="1" s="5"/>
     <row r="81" ht="12.8" customHeight="1" s="5"/>
+    <row r="82" ht="12.8" customHeight="1" s="5"/>
+    <row r="83" ht="12.8" customHeight="1" s="5"/>
+    <row r="84" ht="12.8" customHeight="1" s="5"/>
+    <row r="85" ht="12.8" customHeight="1" s="5"/>
+    <row r="86" ht="12.8" customHeight="1" s="5"/>
+    <row r="87" ht="12.8" customHeight="1" s="5"/>
+    <row r="88" ht="12.8" customHeight="1" s="5"/>
+    <row r="89" ht="12.8" customHeight="1" s="5"/>
+    <row r="90" ht="12.8" customHeight="1" s="5"/>
+    <row r="91" ht="12.8" customHeight="1" s="5"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/items_data/master_upload.xlsx
+++ b/items_data/master_upload.xlsx
@@ -75,7 +75,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -86,17 +86,11 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -467,88 +461,694 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="2:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="82.27" customWidth="1" style="4" min="1" max="1"/>
-    <col width="63.21" customWidth="1" style="4" min="2" max="2"/>
-    <col width="11.52" customWidth="1" style="4" min="3" max="4"/>
-    <col width="39.36" customWidth="1" style="4" min="5" max="5"/>
-    <col width="11.52" customWidth="1" style="4" min="6" max="6"/>
-    <col width="63.83" customWidth="1" style="4" min="7" max="7"/>
-    <col width="47.65" customWidth="1" style="4" min="8" max="8"/>
-    <col width="11.52" customWidth="1" style="4" min="9" max="1025"/>
+    <col width="82.27" customWidth="1" style="3" min="1" max="1"/>
+    <col width="63.21" customWidth="1" style="3" min="2" max="2"/>
+    <col width="11.52" customWidth="1" style="3" min="3" max="4"/>
+    <col width="39.36" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.52" customWidth="1" style="3" min="6" max="6"/>
+    <col width="63.83" customWidth="1" style="3" min="7" max="7"/>
+    <col width="47.65" customWidth="1" style="3" min="8" max="8"/>
+    <col width="11.52" customWidth="1" style="3" min="9" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" ht="87.3" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="87.3" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item Series</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Short Name</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="57.45" customHeight="1" s="5"/>
-    <row r="3" ht="57.45" customHeight="1" s="5"/>
-    <row r="4" ht="57.45" customHeight="1" s="5"/>
-    <row r="5" ht="57.45" customHeight="1" s="5"/>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="8" ht="12.8" customHeight="1" s="5"/>
-    <row r="9" ht="12.8" customHeight="1" s="5"/>
-    <row r="10" ht="12.8" customHeight="1" s="5"/>
-    <row r="11" ht="12.8" customHeight="1" s="5"/>
-    <row r="12" ht="12.8" customHeight="1" s="5"/>
-    <row r="13" ht="12.8" customHeight="1" s="5"/>
-    <row r="14" ht="12.8" customHeight="1" s="5"/>
-    <row r="15" ht="12.8" customHeight="1" s="5"/>
-    <row r="16" ht="12.8" customHeight="1" s="5"/>
-    <row r="17" ht="12.8" customHeight="1" s="5"/>
-    <row r="18" ht="12.8" customHeight="1" s="5"/>
+    <row r="2" ht="57.45" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>new!
+narwhal squishmallows
+Purple/Blue
+Rainbow
+$5.00</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Purple/Blue</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Purple/Blue</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>118814-00_A.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Five Below</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="57.45" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>new!
+narwhal squishmallows
+Purple/Blue
+Rainbow
+$5.00</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Rainbow</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Rainbow</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>118814-01_A.jpg.jpg</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>Five Below</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="57.45" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 16" Plush</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>8011603391.jpg</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="57.45" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 16" Plush</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Teal</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>7061603393.jpg</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="4">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 16" Plush</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>361603390.jpg</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.8" customHeight="1" s="4">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 16" Plush</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>4401603392.jpg</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" s="4">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 16" Plush</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>3541603391.jpg</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" s="4">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 16" Plush</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Teal</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>5221603393.jpg</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" s="4">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 16" Plush</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>8231603390.jpg</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" s="4">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 16" Plush</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>16"</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Pink</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>6141603392.jpg</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="4">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 20" Hello Kitty Sunglasses</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hello Kitty Sunglasses</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>20"</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-20%22-hello-kitty-sunglasses.product.100742307.html</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>1603305.jpg</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" s="4">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallows 20” Star Wars Chewbacca Plush</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Squishmallows 20” Star Wars Chewbacca </t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>https://www.costco.com/squishmallows-20%e2%80%9d-star-wars-chewbacca-plush.product.100691777.html</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>1545490.jpg</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>Costco</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" s="4">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow Corgicorn Only at GameStop</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Corgicorn </t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.gamestop.com/toys-collectibles/toys/plush/products/squishmallow-corgicorn-only-at-gamestop/11137112.html</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Squishmallow-Corgicorn-Only-at-GameStop.jpg</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>GameStop</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.8" customHeight="1" s="4"/>
+    <row r="16" ht="12.8" customHeight="1" s="4"/>
+    <row r="17" ht="12.8" customHeight="1" s="4"/>
+    <row r="18" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -573,155 +1173,155 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="33.8" customWidth="1" style="4" min="1" max="1"/>
-    <col width="11.52" customWidth="1" style="4" min="2" max="3"/>
-    <col width="62.71" customWidth="1" style="4" min="4" max="4"/>
-    <col width="14.88" customWidth="1" style="4" min="5" max="5"/>
-    <col width="11.52" customWidth="1" style="4" min="6" max="1025"/>
+    <col width="33.8" customWidth="1" style="3" min="1" max="1"/>
+    <col width="11.52" customWidth="1" style="3" min="2" max="3"/>
+    <col width="62.71" customWidth="1" style="3" min="4" max="4"/>
+    <col width="14.88" customWidth="1" style="3" min="5" max="5"/>
+    <col width="11.52" customWidth="1" style="3" min="6" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="4">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Item Series</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Short Name</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Styles</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>In Stock</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Img path</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Short URL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="5"/>
-    <row r="3" ht="12.8" customHeight="1" s="5"/>
-    <row r="4" ht="12.8" customHeight="1" s="5"/>
-    <row r="5" ht="12.8" customHeight="1" s="5"/>
-    <row r="6" ht="12.8" customHeight="1" s="5"/>
-    <row r="7" ht="12.8" customHeight="1" s="5"/>
-    <row r="8" ht="12.8" customHeight="1" s="5"/>
-    <row r="9" ht="12.8" customHeight="1" s="5"/>
-    <row r="10" ht="12.8" customHeight="1" s="5"/>
-    <row r="11" ht="12.8" customHeight="1" s="5"/>
-    <row r="12" ht="12.8" customHeight="1" s="5"/>
-    <row r="13" ht="12.8" customHeight="1" s="5"/>
-    <row r="14" ht="12.8" customHeight="1" s="5"/>
-    <row r="15" ht="12.8" customHeight="1" s="5"/>
-    <row r="16" ht="12.8" customHeight="1" s="5"/>
-    <row r="17" ht="12.8" customHeight="1" s="5"/>
-    <row r="18" ht="12.8" customHeight="1" s="5"/>
-    <row r="19" ht="12.8" customHeight="1" s="5"/>
-    <row r="20" ht="12.8" customHeight="1" s="5"/>
-    <row r="21" ht="12.8" customHeight="1" s="5"/>
-    <row r="22" ht="12.8" customHeight="1" s="5"/>
-    <row r="23" ht="12.8" customHeight="1" s="5"/>
-    <row r="24" ht="12.8" customHeight="1" s="5"/>
-    <row r="25" ht="12.8" customHeight="1" s="5"/>
-    <row r="26" ht="12.8" customHeight="1" s="5"/>
-    <row r="27" ht="12.8" customHeight="1" s="5"/>
-    <row r="28" ht="12.8" customHeight="1" s="5"/>
-    <row r="29" ht="12.8" customHeight="1" s="5"/>
-    <row r="30" ht="12.8" customHeight="1" s="5"/>
-    <row r="31" ht="12.8" customHeight="1" s="5"/>
-    <row r="32" ht="12.8" customHeight="1" s="5"/>
-    <row r="33" ht="12.8" customHeight="1" s="5"/>
-    <row r="34" ht="12.8" customHeight="1" s="5"/>
-    <row r="35" ht="12.8" customHeight="1" s="5"/>
-    <row r="36" ht="12.8" customHeight="1" s="5"/>
-    <row r="37" ht="12.8" customHeight="1" s="5"/>
-    <row r="38" ht="12.8" customHeight="1" s="5"/>
-    <row r="39" ht="12.8" customHeight="1" s="5"/>
-    <row r="40" ht="12.8" customHeight="1" s="5"/>
-    <row r="41" ht="12.8" customHeight="1" s="5"/>
-    <row r="42" ht="12.8" customHeight="1" s="5"/>
-    <row r="43" ht="12.8" customHeight="1" s="5"/>
-    <row r="44" ht="12.8" customHeight="1" s="5"/>
-    <row r="45" ht="12.8" customHeight="1" s="5"/>
-    <row r="46" ht="12.8" customHeight="1" s="5"/>
-    <row r="47" ht="12.8" customHeight="1" s="5"/>
-    <row r="48" ht="12.8" customHeight="1" s="5"/>
-    <row r="49" ht="12.8" customHeight="1" s="5"/>
-    <row r="50" ht="12.8" customHeight="1" s="5"/>
-    <row r="51" ht="12.8" customHeight="1" s="5"/>
-    <row r="52" ht="12.8" customHeight="1" s="5"/>
-    <row r="53" ht="12.8" customHeight="1" s="5"/>
-    <row r="54" ht="12.8" customHeight="1" s="5"/>
-    <row r="55" ht="12.8" customHeight="1" s="5"/>
-    <row r="56" ht="12.8" customHeight="1" s="5"/>
-    <row r="57" ht="12.8" customHeight="1" s="5"/>
-    <row r="58" ht="12.8" customHeight="1" s="5"/>
-    <row r="59" ht="12.8" customHeight="1" s="5"/>
-    <row r="60" ht="12.8" customHeight="1" s="5"/>
-    <row r="61" ht="12.8" customHeight="1" s="5"/>
-    <row r="62" ht="12.8" customHeight="1" s="5"/>
-    <row r="63" ht="12.8" customHeight="1" s="5"/>
-    <row r="64" ht="12.8" customHeight="1" s="5"/>
-    <row r="65" ht="12.8" customHeight="1" s="5"/>
-    <row r="66" ht="12.8" customHeight="1" s="5"/>
-    <row r="67" ht="12.8" customHeight="1" s="5"/>
-    <row r="68" ht="12.8" customHeight="1" s="5"/>
-    <row r="69" ht="12.8" customHeight="1" s="5"/>
-    <row r="70" ht="12.8" customHeight="1" s="5"/>
-    <row r="71" ht="12.8" customHeight="1" s="5"/>
-    <row r="72" ht="12.8" customHeight="1" s="5"/>
-    <row r="73" ht="12.8" customHeight="1" s="5"/>
-    <row r="74" ht="12.8" customHeight="1" s="5"/>
-    <row r="75" ht="12.8" customHeight="1" s="5"/>
-    <row r="76" ht="12.8" customHeight="1" s="5"/>
-    <row r="77" ht="12.8" customHeight="1" s="5"/>
-    <row r="78" ht="12.8" customHeight="1" s="5"/>
-    <row r="79" ht="12.8" customHeight="1" s="5"/>
-    <row r="80" ht="12.8" customHeight="1" s="5"/>
-    <row r="81" ht="12.8" customHeight="1" s="5"/>
-    <row r="82" ht="12.8" customHeight="1" s="5"/>
-    <row r="83" ht="12.8" customHeight="1" s="5"/>
-    <row r="84" ht="12.8" customHeight="1" s="5"/>
-    <row r="85" ht="12.8" customHeight="1" s="5"/>
-    <row r="86" ht="12.8" customHeight="1" s="5"/>
-    <row r="87" ht="12.8" customHeight="1" s="5"/>
-    <row r="88" ht="12.8" customHeight="1" s="5"/>
-    <row r="89" ht="12.8" customHeight="1" s="5"/>
-    <row r="90" ht="12.8" customHeight="1" s="5"/>
-    <row r="91" ht="12.8" customHeight="1" s="5"/>
+    <row r="2" ht="12.8" customHeight="1" s="4"/>
+    <row r="3" ht="12.8" customHeight="1" s="4"/>
+    <row r="4" ht="12.8" customHeight="1" s="4"/>
+    <row r="5" ht="12.8" customHeight="1" s="4"/>
+    <row r="6" ht="12.8" customHeight="1" s="4"/>
+    <row r="7" ht="12.8" customHeight="1" s="4"/>
+    <row r="8" ht="12.8" customHeight="1" s="4"/>
+    <row r="9" ht="12.8" customHeight="1" s="4"/>
+    <row r="10" ht="12.8" customHeight="1" s="4"/>
+    <row r="11" ht="12.8" customHeight="1" s="4"/>
+    <row r="12" ht="12.8" customHeight="1" s="4"/>
+    <row r="13" ht="12.8" customHeight="1" s="4"/>
+    <row r="14" ht="12.8" customHeight="1" s="4"/>
+    <row r="15" ht="12.8" customHeight="1" s="4"/>
+    <row r="16" ht="12.8" customHeight="1" s="4"/>
+    <row r="17" ht="12.8" customHeight="1" s="4"/>
+    <row r="18" ht="12.8" customHeight="1" s="4"/>
+    <row r="19" ht="12.8" customHeight="1" s="4"/>
+    <row r="20" ht="12.8" customHeight="1" s="4"/>
+    <row r="21" ht="12.8" customHeight="1" s="4"/>
+    <row r="22" ht="12.8" customHeight="1" s="4"/>
+    <row r="23" ht="12.8" customHeight="1" s="4"/>
+    <row r="24" ht="12.8" customHeight="1" s="4"/>
+    <row r="25" ht="12.8" customHeight="1" s="4"/>
+    <row r="26" ht="12.8" customHeight="1" s="4"/>
+    <row r="27" ht="12.8" customHeight="1" s="4"/>
+    <row r="28" ht="12.8" customHeight="1" s="4"/>
+    <row r="29" ht="12.8" customHeight="1" s="4"/>
+    <row r="30" ht="12.8" customHeight="1" s="4"/>
+    <row r="31" ht="12.8" customHeight="1" s="4"/>
+    <row r="32" ht="12.8" customHeight="1" s="4"/>
+    <row r="33" ht="12.8" customHeight="1" s="4"/>
+    <row r="34" ht="12.8" customHeight="1" s="4"/>
+    <row r="35" ht="12.8" customHeight="1" s="4"/>
+    <row r="36" ht="12.8" customHeight="1" s="4"/>
+    <row r="37" ht="12.8" customHeight="1" s="4"/>
+    <row r="38" ht="12.8" customHeight="1" s="4"/>
+    <row r="39" ht="12.8" customHeight="1" s="4"/>
+    <row r="40" ht="12.8" customHeight="1" s="4"/>
+    <row r="41" ht="12.8" customHeight="1" s="4"/>
+    <row r="42" ht="12.8" customHeight="1" s="4"/>
+    <row r="43" ht="12.8" customHeight="1" s="4"/>
+    <row r="44" ht="12.8" customHeight="1" s="4"/>
+    <row r="45" ht="12.8" customHeight="1" s="4"/>
+    <row r="46" ht="12.8" customHeight="1" s="4"/>
+    <row r="47" ht="12.8" customHeight="1" s="4"/>
+    <row r="48" ht="12.8" customHeight="1" s="4"/>
+    <row r="49" ht="12.8" customHeight="1" s="4"/>
+    <row r="50" ht="12.8" customHeight="1" s="4"/>
+    <row r="51" ht="12.8" customHeight="1" s="4"/>
+    <row r="52" ht="12.8" customHeight="1" s="4"/>
+    <row r="53" ht="12.8" customHeight="1" s="4"/>
+    <row r="54" ht="12.8" customHeight="1" s="4"/>
+    <row r="55" ht="12.8" customHeight="1" s="4"/>
+    <row r="56" ht="12.8" customHeight="1" s="4"/>
+    <row r="57" ht="12.8" customHeight="1" s="4"/>
+    <row r="58" ht="12.8" customHeight="1" s="4"/>
+    <row r="59" ht="12.8" customHeight="1" s="4"/>
+    <row r="60" ht="12.8" customHeight="1" s="4"/>
+    <row r="61" ht="12.8" customHeight="1" s="4"/>
+    <row r="62" ht="12.8" customHeight="1" s="4"/>
+    <row r="63" ht="12.8" customHeight="1" s="4"/>
+    <row r="64" ht="12.8" customHeight="1" s="4"/>
+    <row r="65" ht="12.8" customHeight="1" s="4"/>
+    <row r="66" ht="12.8" customHeight="1" s="4"/>
+    <row r="67" ht="12.8" customHeight="1" s="4"/>
+    <row r="68" ht="12.8" customHeight="1" s="4"/>
+    <row r="69" ht="12.8" customHeight="1" s="4"/>
+    <row r="70" ht="12.8" customHeight="1" s="4"/>
+    <row r="71" ht="12.8" customHeight="1" s="4"/>
+    <row r="72" ht="12.8" customHeight="1" s="4"/>
+    <row r="73" ht="12.8" customHeight="1" s="4"/>
+    <row r="74" ht="12.8" customHeight="1" s="4"/>
+    <row r="75" ht="12.8" customHeight="1" s="4"/>
+    <row r="76" ht="12.8" customHeight="1" s="4"/>
+    <row r="77" ht="12.8" customHeight="1" s="4"/>
+    <row r="78" ht="12.8" customHeight="1" s="4"/>
+    <row r="79" ht="12.8" customHeight="1" s="4"/>
+    <row r="80" ht="12.8" customHeight="1" s="4"/>
+    <row r="81" ht="12.8" customHeight="1" s="4"/>
+    <row r="82" ht="12.8" customHeight="1" s="4"/>
+    <row r="83" ht="12.8" customHeight="1" s="4"/>
+    <row r="84" ht="12.8" customHeight="1" s="4"/>
+    <row r="85" ht="12.8" customHeight="1" s="4"/>
+    <row r="86" ht="12.8" customHeight="1" s="4"/>
+    <row r="87" ht="12.8" customHeight="1" s="4"/>
+    <row r="88" ht="12.8" customHeight="1" s="4"/>
+    <row r="89" ht="12.8" customHeight="1" s="4"/>
+    <row r="90" ht="12.8" customHeight="1" s="4"/>
+    <row r="91" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/items_data/master_upload.xlsx
+++ b/items_data/master_upload.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="2:7"/>
@@ -526,625 +526,19 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="57.45" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>new!
-narwhal squishmallows
-Purple/Blue
-Rainbow
-$5.00</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Purple/Blue</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Purple/Blue</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>118814-00_A.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Five Below</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="57.45" customHeight="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>new!
-narwhal squishmallows
-Purple/Blue
-Rainbow
-$5.00</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Rainbow</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>Rainbow</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>https://www.fivebelow.com/products/narwhal-squishmallows</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>118814-01_A.jpg.jpg</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Five Below</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="57.45" customHeight="1" s="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 16" Plush</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>8011603391.jpg</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="57.45" customHeight="1" s="4">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 16" Plush</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Teal</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>7061603393.jpg</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="4">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 16" Plush</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>361603390.jpg</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="12.8" customHeight="1" s="4">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 16" Plush</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Pink</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>4401603392.jpg</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1" s="4">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 16" Plush</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>3541603391.jpg</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1" s="4">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 16" Plush</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Teal</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>5221603393.jpg</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1" s="4">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 16" Plush</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>8231603390.jpg</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="12.8" customHeight="1" s="4">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 16" Plush</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>12.99</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>16"</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Pink</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-16%22-plush.product.100734711.html</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>6141603392.jpg</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="12.8" customHeight="1" s="4">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 20" Hello Kitty Sunglasses</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hello Kitty Sunglasses</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>27.99</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>20"</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-20%22-hello-kitty-sunglasses.product.100742307.html</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>1603305.jpg</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="12.8" customHeight="1" s="4">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallows 20” Star Wars Chewbacca Plush</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Squishmallows 20” Star Wars Chewbacca </t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>27.99</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>https://www.costco.com/squishmallows-20%e2%80%9d-star-wars-chewbacca-plush.product.100691777.html</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>1545490.jpg</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>Costco</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="12.8" customHeight="1" s="4">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow Corgicorn Only at GameStop</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Corgicorn </t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>https://www.gamestop.com/toys-collectibles/toys/plush/products/squishmallow-corgicorn-only-at-gamestop/11137112.html</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>Squishmallow-Corgicorn-Only-at-GameStop.jpg</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>GameStop</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" ht="57.45" customHeight="1" s="4"/>
+    <row r="3" ht="57.45" customHeight="1" s="4"/>
+    <row r="4" ht="57.45" customHeight="1" s="4"/>
+    <row r="5" ht="57.45" customHeight="1" s="4"/>
+    <row r="6" ht="12.8" customHeight="1" s="4"/>
+    <row r="7" ht="12.8" customHeight="1" s="4"/>
+    <row r="8" ht="12.8" customHeight="1" s="4"/>
+    <row r="9" ht="12.8" customHeight="1" s="4"/>
+    <row r="10" ht="12.8" customHeight="1" s="4"/>
+    <row r="11" ht="12.8" customHeight="1" s="4"/>
+    <row r="12" ht="12.8" customHeight="1" s="4"/>
+    <row r="13" ht="12.8" customHeight="1" s="4"/>
+    <row r="14" ht="12.8" customHeight="1" s="4"/>
     <row r="15" ht="12.8" customHeight="1" s="4"/>
     <row r="16" ht="12.8" customHeight="1" s="4"/>
     <row r="17" ht="12.8" customHeight="1" s="4"/>

--- a/items_data/master_upload.xlsx
+++ b/items_data/master_upload.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="2:7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
@@ -529,12 +529,12 @@
     <row r="2" ht="57.45" customHeight="1" s="4"/>
     <row r="3" ht="57.45" customHeight="1" s="4"/>
     <row r="4" ht="57.45" customHeight="1" s="4"/>
-    <row r="5" ht="57.45" customHeight="1" s="4"/>
-    <row r="6" ht="12.8" customHeight="1" s="4"/>
-    <row r="7" ht="12.8" customHeight="1" s="4"/>
-    <row r="8" ht="12.8" customHeight="1" s="4"/>
-    <row r="9" ht="12.8" customHeight="1" s="4"/>
-    <row r="10" ht="12.8" customHeight="1" s="4"/>
+    <row r="5" ht="23.85" customHeight="1" s="4"/>
+    <row r="6" ht="23.85" customHeight="1" s="4"/>
+    <row r="7" ht="23.85" customHeight="1" s="4"/>
+    <row r="8" ht="57.45" customHeight="1" s="4"/>
+    <row r="9" ht="57.45" customHeight="1" s="4"/>
+    <row r="10" ht="57.45" customHeight="1" s="4"/>
     <row r="11" ht="12.8" customHeight="1" s="4"/>
     <row r="12" ht="12.8" customHeight="1" s="4"/>
     <row r="13" ht="12.8" customHeight="1" s="4"/>
@@ -543,6 +543,7 @@
     <row r="16" ht="12.8" customHeight="1" s="4"/>
     <row r="17" ht="12.8" customHeight="1" s="4"/>
     <row r="18" ht="12.8" customHeight="1" s="4"/>
+    <row r="19" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -567,7 +568,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
